--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
       </c>
       <c r="O8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +799,7 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -802,16 +808,16 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -819,19 +825,22 @@
       <c r="P9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
@@ -843,28 +852,31 @@
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
       </c>
       <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1037,13 +1059,13 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,10 +1110,10 @@
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1096,72 +1122,78 @@
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,17 +1255,20 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
@@ -1246,28 +1282,31 @@
         <v>200</v>
       </c>
       <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
       <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,19 +1349,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1334,28 +1376,31 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1490,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1466,39 +1517,42 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1510,28 +1564,31 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,19 +1819,22 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1774,28 +1846,31 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1913,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1862,77 +1940,83 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,25 +2062,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2009,10 +2095,13 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2144,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
@@ -2073,34 +2165,37 @@
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2297,46 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,8 +2346,8 @@
       <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2475,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>9400</v>
       </c>
       <c r="G54" s="3">
         <v>9400</v>
       </c>
       <c r="H54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="I54" s="3">
         <v>9900</v>
       </c>
       <c r="J54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,13 +2758,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2643,28 +2773,31 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,8 +2854,8 @@
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -2733,8 +2869,8 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2905,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2775,28 +2914,31 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,48 +2946,51 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2500</v>
       </c>
       <c r="M61" s="3">
         <v>2500</v>
       </c>
       <c r="N61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O61" s="3">
         <v>2900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -2872,7 +3017,7 @@
         <v>900</v>
       </c>
       <c r="M62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
@@ -2881,10 +3026,13 @@
         <v>1000</v>
       </c>
       <c r="P62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3435,46 @@
         <v>300</v>
       </c>
       <c r="E72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F72" s="3">
         <v>400</v>
       </c>
       <c r="G72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H72" s="3">
         <v>500</v>
       </c>
       <c r="I72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J72" s="3">
         <v>400</v>
       </c>
       <c r="K72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L72" s="3">
+        <v>200</v>
+      </c>
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>800</v>
       </c>
       <c r="O72" s="3">
         <v>800</v>
       </c>
       <c r="P72" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8400</v>
       </c>
       <c r="F76" s="3">
         <v>8400</v>
       </c>
       <c r="G76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H76" s="3">
         <v>8500</v>
       </c>
       <c r="I76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="J76" s="3">
         <v>8400</v>
       </c>
       <c r="K76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>8700</v>
       </c>
       <c r="O76" s="3">
         <v>8700</v>
       </c>
       <c r="P76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3705,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3590,28 +3784,31 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3652,13 +3850,13 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,37 +4123,40 @@
         <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4173,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -3987,19 +4207,22 @@
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-500</v>
       </c>
       <c r="P91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,41 +4660,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
       </c>
       <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,51 +816,57 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
@@ -855,28 +875,34 @@
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1029,14 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,16 +1108,16 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,93 +1161,105 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,23 +1326,29 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
@@ -1285,28 +1359,34 @@
         <v>200</v>
       </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,26 +1432,32 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1379,28 +1465,34 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,26 +1591,32 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1520,46 +1624,52 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1567,28 +1677,34 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,26 +1962,32 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1849,28 +1995,34 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,26 +2068,32 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1943,80 +2101,92 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,31 +2236,31 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2098,10 +2272,16 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,13 +2327,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2162,40 +2348,46 @@
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>800</v>
+      </c>
+      <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,29 +2433,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2288,72 +2486,84 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2364,11 +2574,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2582,32 +2822,32 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F54" s="3">
         <v>9800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,43 +3023,49 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2857,11 +3131,11 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2872,11 +3146,11 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2890,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2908,84 +3188,96 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,10 +3285,10 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
@@ -3020,19 +3312,25 @@
         <v>900</v>
       </c>
       <c r="N62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3">
         <v>300</v>
       </c>
       <c r="F72" s="3">
+        <v>300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>300</v>
+      </c>
+      <c r="H72" s="3">
         <v>400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="L72" s="3">
-        <v>200</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
+        <v>200</v>
+      </c>
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E76" s="3">
         <v>8400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8300</v>
       </c>
       <c r="F76" s="3">
         <v>8400</v>
       </c>
       <c r="G76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J76" s="3">
         <v>8500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,78 +4086,90 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3787,28 +4177,34 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,16 +4251,16 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,16 +4536,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
         <v>200</v>
@@ -4126,37 +4560,43 @@
         <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
-      </c>
       <c r="L91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +5176,48 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>600</v>
       </c>
       <c r="K8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,7 +829,7 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -831,16 +838,16 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
@@ -848,28 +855,31 @@
       <c r="S9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
@@ -881,28 +891,31 @@
         <v>400</v>
       </c>
       <c r="M10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
       </c>
       <c r="O10" s="3">
+        <v>500</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,13 +1137,13 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,10 +1188,10 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
@@ -1173,10 +1200,10 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -1185,81 +1212,87 @@
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,26 +1366,29 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
       <c r="I21" s="3">
         <v>200</v>
       </c>
@@ -1365,28 +1402,31 @@
         <v>200</v>
       </c>
       <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,28 +1478,31 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1471,28 +1514,31 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,28 +1646,31 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1630,48 +1682,51 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1683,28 +1738,31 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,28 +2038,31 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2001,28 +2074,31 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,28 +2150,31 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2107,86 +2186,92 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,34 +2323,34 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2278,10 +2365,13 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,25 +2423,28 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
@@ -2360,34 +2453,37 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2460,11 +2559,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2557,7 +2662,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -2565,8 +2670,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,52 +2715,55 @@
         <v>9600</v>
       </c>
       <c r="E48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F48" s="3">
         <v>9500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2828,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2843,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>9400</v>
       </c>
       <c r="J54" s="3">
         <v>9400</v>
       </c>
       <c r="K54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="L54" s="3">
         <v>9900</v>
       </c>
       <c r="M54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N54" s="3">
         <v>10400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3044,28 +3175,31 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3137,8 +3274,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3194,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3203,81 +3343,87 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2500</v>
       </c>
       <c r="P61" s="3">
         <v>2500</v>
       </c>
       <c r="Q61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R61" s="3">
         <v>2900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +3437,7 @@
         <v>800</v>
       </c>
       <c r="G62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
@@ -3318,7 +3464,7 @@
         <v>900</v>
       </c>
       <c r="P62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q62" s="3">
         <v>1000</v>
@@ -3327,10 +3473,13 @@
         <v>1000</v>
       </c>
       <c r="S62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F72" s="3">
         <v>300</v>
@@ -3792,43 +3966,46 @@
         <v>300</v>
       </c>
       <c r="H72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I72" s="3">
         <v>400</v>
       </c>
       <c r="J72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K72" s="3">
         <v>500</v>
       </c>
       <c r="L72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M72" s="3">
         <v>400</v>
       </c>
       <c r="N72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O72" s="3">
+        <v>200</v>
+      </c>
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>800</v>
       </c>
       <c r="R72" s="3">
         <v>800</v>
       </c>
       <c r="S72" s="3">
+        <v>800</v>
+      </c>
+      <c r="T72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,52 +4181,55 @@
         <v>8100</v>
       </c>
       <c r="E76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="F76" s="3">
         <v>8400</v>
       </c>
       <c r="G76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H76" s="3">
         <v>8300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8400</v>
       </c>
       <c r="I76" s="3">
         <v>8400</v>
       </c>
       <c r="J76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="K76" s="3">
         <v>8500</v>
       </c>
       <c r="L76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="M76" s="3">
         <v>8400</v>
       </c>
       <c r="N76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8700</v>
       </c>
       <c r="R76" s="3">
         <v>8700</v>
       </c>
       <c r="S76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,86 +4281,92 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -4183,28 +4378,31 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,13 +4456,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,11 +4768,11 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
@@ -4566,37 +4783,40 @@
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,28 +4849,28 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
@@ -4658,19 +4879,22 @@
         <v>-300</v>
       </c>
       <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-500</v>
       </c>
       <c r="S91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,52 +5014,55 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,35 +5434,35 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>700</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
       <c r="S8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,7 +838,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -841,16 +847,16 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
@@ -858,31 +864,34 @@
       <c r="T9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
@@ -894,28 +903,31 @@
         <v>400</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1140,13 +1162,13 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,22 +1204,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1203,10 +1229,10 @@
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
@@ -1215,84 +1241,90 @@
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
       <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,29 +1402,32 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
@@ -1405,28 +1441,31 @@
         <v>200</v>
       </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,31 +1520,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1517,28 +1559,31 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,31 +1697,34 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1685,51 +1736,54 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1741,28 +1795,31 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,31 +2110,34 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2077,28 +2149,31 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,31 +2228,34 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2189,89 +2267,95 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2399,47 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2368,10 +2454,13 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,28 +2515,31 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -2456,34 +2548,37 @@
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2562,11 +2660,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,55 +2704,58 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2769,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2673,8 +2777,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,52 +2825,55 @@
         <v>9600</v>
       </c>
       <c r="F48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G48" s="3">
         <v>9500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2951,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2966,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3176,58 @@
         <v>10200</v>
       </c>
       <c r="E54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9400</v>
       </c>
       <c r="K54" s="3">
         <v>9400</v>
       </c>
       <c r="L54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="M54" s="3">
         <v>9900</v>
       </c>
       <c r="N54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O54" s="3">
         <v>10400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,13 +3293,13 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3178,28 +3308,31 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,13 +3387,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3277,8 +3413,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3292,8 +3428,8 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,13 +3446,16 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3337,7 +3476,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3346,84 +3485,90 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2500</v>
       </c>
       <c r="Q61" s="3">
         <v>2500</v>
       </c>
       <c r="R61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S61" s="3">
         <v>2900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3440,7 +3585,7 @@
         <v>800</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
@@ -3467,7 +3612,7 @@
         <v>900</v>
       </c>
       <c r="Q62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R62" s="3">
         <v>1000</v>
@@ -3476,10 +3621,13 @@
         <v>1000</v>
       </c>
       <c r="T62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,19 +4118,22 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
         <v>300</v>
@@ -3969,43 +4142,46 @@
         <v>300</v>
       </c>
       <c r="I72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J72" s="3">
         <v>400</v>
       </c>
       <c r="K72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L72" s="3">
         <v>500</v>
       </c>
       <c r="M72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N72" s="3">
         <v>400</v>
       </c>
       <c r="O72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P72" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>800</v>
       </c>
       <c r="S72" s="3">
         <v>800</v>
       </c>
       <c r="T72" s="3">
+        <v>800</v>
+      </c>
+      <c r="U72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E76" s="3">
         <v>8100</v>
       </c>
       <c r="F76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="G76" s="3">
         <v>8400</v>
       </c>
       <c r="H76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I76" s="3">
         <v>8300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8400</v>
       </c>
       <c r="J76" s="3">
         <v>8400</v>
       </c>
       <c r="K76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="L76" s="3">
         <v>8500</v>
       </c>
       <c r="M76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="N76" s="3">
         <v>8400</v>
       </c>
       <c r="O76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P76" s="3">
         <v>8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>8700</v>
       </c>
       <c r="S76" s="3">
         <v>8700</v>
       </c>
       <c r="T76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="U76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,92 +4472,98 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -4381,28 +4575,31 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4459,13 +4657,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,23 +4972,26 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
@@ -4786,37 +5002,40 @@
         <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>300</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,28 +5072,28 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
@@ -4882,19 +5102,22 @@
         <v>-300</v>
       </c>
       <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-500</v>
       </c>
       <c r="T91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,35 +5688,35 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,170 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
       </c>
       <c r="H8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>700</v>
       </c>
       <c r="Q8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -841,63 +855,69 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
@@ -906,28 +926,34 @@
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>500</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,19 +1101,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1093,11 +1133,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1108,11 +1148,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1120,19 +1160,25 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1165,16 +1211,16 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,34 +1473,40 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200</v>
-      </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -1444,28 +1518,34 @@
         <v>200</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,38 +1603,44 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1562,28 +1648,34 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,38 +1798,44 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1739,58 +1843,64 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1798,28 +1908,34 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,38 +2253,44 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2152,28 +2298,34 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,38 +2383,44 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2270,92 +2428,104 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2572,55 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
@@ -2457,10 +2631,16 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,25 +2698,31 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2545,40 +2731,46 @@
         <v>400</v>
       </c>
       <c r="K43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
       <c r="Q43" s="3">
+        <v>800</v>
+      </c>
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2648,28 +2846,28 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2695,67 +2893,79 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2772,19 +2982,19 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2795,11 +3005,11 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2813,67 +3023,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F48" s="3">
         <v>9600</v>
       </c>
       <c r="G48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I48" s="3">
         <v>9500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>9400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3073,31 +3313,31 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,13 +3532,15 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3296,43 +3558,49 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
-      </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,19 +3658,25 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3416,11 +3690,11 @@
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3431,11 +3705,11 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3449,19 +3723,25 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3479,96 +3759,108 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
-      </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
       </c>
       <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,7 +3868,7 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
@@ -3588,10 +3880,10 @@
         <v>800</v>
       </c>
       <c r="I62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
@@ -3615,19 +3907,25 @@
         <v>900</v>
       </c>
       <c r="R62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
         <v>300</v>
       </c>
       <c r="J72" s="3">
+        <v>300</v>
+      </c>
+      <c r="K72" s="3">
+        <v>300</v>
+      </c>
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
+        <v>200</v>
+      </c>
+      <c r="S72" s="3">
         <v>300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F76" s="3">
         <v>8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>8300</v>
       </c>
       <c r="J76" s="3">
         <v>8400</v>
       </c>
       <c r="K76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N76" s="3">
         <v>8500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,102 +4853,114 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4578,28 +4968,34 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,13 +5017,15 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4660,16 +5058,16 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,29 +5403,35 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
@@ -5005,37 +5439,43 @@
         <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5497,15 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5075,49 +5517,55 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
-      </c>
       <c r="P91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5691,42 +6195,48 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
       </c>
       <c r="O8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>700</v>
       </c>
       <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>700</v>
       </c>
       <c r="U8" s="3">
         <v>700</v>
       </c>
       <c r="V8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +838,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -861,7 +868,7 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
@@ -870,16 +877,16 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
@@ -887,40 +894,43 @@
       <c r="W9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
@@ -932,28 +942,31 @@
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,7 +1204,7 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1217,13 +1240,13 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,31 +1285,32 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -1292,10 +1319,10 @@
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
@@ -1304,93 +1331,99 @@
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E18" s="3">
         <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,37 +1513,40 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
       <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>200</v>
@@ -1524,28 +1561,31 @@
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>200</v>
-      </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,40 +1649,43 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1654,28 +1697,31 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,40 +1853,43 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1849,60 +1901,63 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1914,28 +1969,31 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,40 +2329,43 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2304,28 +2377,31 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,40 +2465,43 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2434,98 +2513,104 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,44 +2673,44 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -2637,10 +2724,13 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,37 +2794,40 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
@@ -2743,34 +2836,37 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>400</v>
       </c>
       <c r="U43" s="3">
         <v>400</v>
       </c>
       <c r="V43" s="3">
+        <v>400</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2852,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2867,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
-      </c>
-      <c r="T46" s="3">
-        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2988,7 +3093,7 @@
         <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -2996,8 +3101,8 @@
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3011,8 +3116,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,10 +3146,10 @@
         <v>10000</v>
       </c>
       <c r="E48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F48" s="3">
         <v>9800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>9600</v>
       </c>
       <c r="G48" s="3">
         <v>9600</v>
@@ -3050,52 +3158,55 @@
         <v>9600</v>
       </c>
       <c r="I48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J48" s="3">
         <v>9500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3319,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3334,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10200</v>
       </c>
       <c r="G54" s="3">
         <v>10200</v>
       </c>
       <c r="H54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9400</v>
       </c>
       <c r="N54" s="3">
         <v>9400</v>
       </c>
       <c r="O54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="P54" s="3">
         <v>9900</v>
       </c>
       <c r="Q54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="R54" s="3">
         <v>10400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,16 +3664,17 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3564,13 +3695,13 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3579,28 +3710,31 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,13 +3810,13 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3696,8 +3833,8 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -3711,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,13 +3878,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3765,7 +3905,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3774,93 +3914,99 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
       </c>
       <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>2500</v>
       </c>
       <c r="T61" s="3">
         <v>2500</v>
       </c>
       <c r="U61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V61" s="3">
         <v>2900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,10 +4014,10 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
@@ -3886,7 +4032,7 @@
         <v>800</v>
       </c>
       <c r="K62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
@@ -3913,7 +4059,7 @@
         <v>900</v>
       </c>
       <c r="T62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U62" s="3">
         <v>1000</v>
@@ -3922,10 +4068,13 @@
         <v>1000</v>
       </c>
       <c r="W62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2000</v>
       </c>
       <c r="F66" s="3">
         <v>2000</v>
       </c>
       <c r="G66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
       </c>
       <c r="O66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,28 +4640,31 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>500</v>
       </c>
-      <c r="F72" s="3">
-        <v>100</v>
-      </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3">
         <v>300</v>
@@ -4499,43 +4673,46 @@
         <v>300</v>
       </c>
       <c r="L72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M72" s="3">
         <v>400</v>
       </c>
       <c r="N72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O72" s="3">
         <v>500</v>
       </c>
       <c r="P72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q72" s="3">
         <v>400</v>
       </c>
       <c r="R72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S72" s="3">
+        <v>200</v>
+      </c>
+      <c r="T72" s="3">
         <v>300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>800</v>
       </c>
       <c r="V72" s="3">
         <v>800</v>
       </c>
       <c r="W72" s="3">
+        <v>800</v>
+      </c>
+      <c r="X72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E76" s="3">
         <v>9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>8100</v>
       </c>
       <c r="H76" s="3">
         <v>8100</v>
       </c>
       <c r="I76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="J76" s="3">
         <v>8400</v>
       </c>
       <c r="K76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L76" s="3">
         <v>8300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>8400</v>
       </c>
       <c r="M76" s="3">
         <v>8400</v>
       </c>
       <c r="N76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="O76" s="3">
         <v>8500</v>
       </c>
       <c r="P76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="Q76" s="3">
         <v>8400</v>
       </c>
       <c r="R76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>8700</v>
       </c>
       <c r="V76" s="3">
         <v>8700</v>
       </c>
       <c r="W76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="X76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,110 +5048,116 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4974,28 +5169,31 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +5227,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5064,13 +5263,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,32 +5623,35 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
@@ -5445,37 +5662,40 @@
         <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,17 +5719,18 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5523,28 +5744,28 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
@@ -5553,19 +5774,22 @@
         <v>-300</v>
       </c>
       <c r="T91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-500</v>
       </c>
       <c r="W91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,64 +5933,67 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>2500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6201,35 +6453,35 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,67 +773,70 @@
         <v>1600</v>
       </c>
       <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
+        <v>700</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>700</v>
       </c>
       <c r="V8" s="3">
         <v>700</v>
       </c>
       <c r="W8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,7 +847,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -871,7 +877,7 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -880,16 +886,16 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
         <v>200</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,34 +915,34 @@
         <v>1300</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -945,28 +954,31 @@
         <v>400</v>
       </c>
       <c r="R10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
       </c>
       <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1143,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>300</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1243,13 +1265,13 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>300</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,25 +1321,25 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
@@ -1322,10 +1348,10 @@
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
@@ -1334,28 +1360,31 @@
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
       </c>
       <c r="X17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,31 +1561,31 @@
         <v>1000</v>
       </c>
       <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
       <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>200</v>
-      </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
@@ -1564,28 +1600,31 @@
         <v>200</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,43 +1691,46 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1700,28 +1742,31 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,43 +1904,46 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1904,63 +1955,66 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>400</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1972,28 +2026,31 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,43 +2401,46 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>400</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2380,28 +2452,31 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,43 +2543,46 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>400</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2516,101 +2594,107 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,13 +2746,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2676,44 +2762,44 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
@@ -2727,10 +2813,13 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,31 +2898,31 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
@@ -2839,34 +2931,37 @@
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>400</v>
       </c>
       <c r="V43" s="3">
         <v>400</v>
       </c>
       <c r="W43" s="3">
+        <v>400</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2954,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2969,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3001,81 +3099,87 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>500</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -3096,7 +3200,7 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -3104,8 +3208,8 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,22 +3241,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="E48" s="3">
         <v>10000</v>
       </c>
       <c r="F48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="3">
         <v>9800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>9600</v>
       </c>
       <c r="H48" s="3">
         <v>9600</v>
@@ -3161,52 +3268,55 @@
         <v>9600</v>
       </c>
       <c r="J48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K48" s="3">
         <v>9500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3442,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3457,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10200</v>
       </c>
       <c r="H54" s="3">
         <v>10200</v>
       </c>
       <c r="I54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J54" s="3">
         <v>10000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>9400</v>
       </c>
       <c r="O54" s="3">
         <v>9400</v>
       </c>
       <c r="P54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="Q54" s="3">
         <v>9900</v>
       </c>
       <c r="R54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="S54" s="3">
         <v>10400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3794,20 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3698,13 +3828,13 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3713,28 +3843,31 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,13 +3949,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3836,8 +3972,8 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3851,8 +3987,8 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3881,13 +4020,13 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3908,7 +4047,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3917,28 +4056,31 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
       <c r="W60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,67 +4088,70 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2500</v>
       </c>
       <c r="U61" s="3">
         <v>2500</v>
       </c>
       <c r="V61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W61" s="3">
         <v>2900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,10 +4162,10 @@
         <v>800</v>
       </c>
       <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
@@ -4035,7 +4180,7 @@
         <v>800</v>
       </c>
       <c r="L62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M62" s="3">
         <v>900</v>
@@ -4062,7 +4207,7 @@
         <v>900</v>
       </c>
       <c r="U62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V62" s="3">
         <v>1000</v>
@@ -4071,10 +4216,13 @@
         <v>1000</v>
       </c>
       <c r="X62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>2000</v>
       </c>
       <c r="H66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,31 +4813,34 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>500</v>
       </c>
-      <c r="G72" s="3">
-        <v>100</v>
-      </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K72" s="3">
         <v>300</v>
@@ -4676,43 +4849,46 @@
         <v>300</v>
       </c>
       <c r="M72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N72" s="3">
         <v>400</v>
       </c>
       <c r="O72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P72" s="3">
         <v>500</v>
       </c>
       <c r="Q72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R72" s="3">
         <v>400</v>
       </c>
       <c r="S72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T72" s="3">
+        <v>200</v>
+      </c>
+      <c r="U72" s="3">
         <v>300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>500</v>
-      </c>
-      <c r="V72" s="3">
-        <v>800</v>
       </c>
       <c r="W72" s="3">
         <v>800</v>
       </c>
       <c r="X72" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8100</v>
       </c>
       <c r="I76" s="3">
         <v>8100</v>
       </c>
       <c r="J76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="K76" s="3">
         <v>8400</v>
       </c>
       <c r="L76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M76" s="3">
         <v>8300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>8400</v>
       </c>
       <c r="N76" s="3">
         <v>8400</v>
       </c>
       <c r="O76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="P76" s="3">
         <v>8500</v>
       </c>
       <c r="Q76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="R76" s="3">
         <v>8400</v>
       </c>
       <c r="S76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8400</v>
-      </c>
-      <c r="V76" s="3">
-        <v>8700</v>
       </c>
       <c r="W76" s="3">
         <v>8700</v>
       </c>
       <c r="X76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,116 +5239,122 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>400</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -5172,28 +5366,31 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,7 +5428,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5266,13 +5464,13 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,35 +5839,38 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
@@ -5665,37 +5881,40 @@
         <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>300</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,20 +5939,21 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5747,28 +5967,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
@@ -5777,19 +5997,22 @@
         <v>-300</v>
       </c>
       <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-500</v>
       </c>
       <c r="X91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>2500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,13 +6674,16 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6456,35 +6707,35 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,209 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>800</v>
       </c>
       <c r="T8" s="3">
         <v>700</v>
       </c>
       <c r="U8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="V8" s="3">
         <v>700</v>
       </c>
       <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -880,75 +894,81 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>200</v>
-      </c>
       <c r="X9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
@@ -957,28 +977,34 @@
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>400</v>
+      </c>
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>500</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
       <c r="Y10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1184,11 +1224,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1199,11 +1239,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1211,31 +1251,37 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1268,16 +1314,16 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>300</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1552,46 +1620,52 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
@@ -1603,28 +1677,34 @@
         <v>200</v>
       </c>
       <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
-        <v>200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,50 +1774,56 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1745,28 +1831,34 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,50 +2005,56 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1958,70 +2062,76 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -2029,28 +2139,34 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2404,50 +2544,56 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2455,28 +2601,34 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,50 +2698,56 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2597,104 +2755,116 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,65 +2919,67 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
@@ -2816,10 +2990,16 @@
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,37 +3069,43 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2928,40 +3114,46 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>400</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
-      </c>
-      <c r="S43" s="3">
-        <v>800</v>
       </c>
       <c r="T43" s="3">
         <v>600</v>
       </c>
       <c r="U43" s="3">
+        <v>800</v>
+      </c>
+      <c r="V43" s="3">
+        <v>600</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
-      </c>
-      <c r="W43" s="3">
-        <v>400</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3055,28 +3253,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,10 +3392,10 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -3203,19 +3413,19 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3226,11 +3436,11 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3244,79 +3454,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F48" s="3">
         <v>10200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9600</v>
       </c>
       <c r="J48" s="3">
         <v>9600</v>
       </c>
       <c r="K48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M48" s="3">
         <v>9500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>9000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>9400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>11500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>11600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>12200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>12500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3762,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3543,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3564,31 +3804,31 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F54" s="3">
         <v>12100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,16 +4055,18 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3813,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3831,43 +4093,49 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
-      </c>
       <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,16 +4226,16 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3975,11 +4249,11 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3990,11 +4264,11 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4008,31 +4282,37 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4050,37 +4330,43 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
-      </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,67 +4377,73 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1100</v>
       </c>
       <c r="I61" s="3">
         <v>1200</v>
       </c>
       <c r="J61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
-        <v>200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>3100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4165,13 +4457,13 @@
         <v>800</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
@@ -4183,10 +4475,10 @@
         <v>800</v>
       </c>
       <c r="M62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>900</v>
@@ -4210,19 +4502,25 @@
         <v>900</v>
       </c>
       <c r="V62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F72" s="3">
         <v>2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="H72" s="3">
-        <v>100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M72" s="3">
         <v>300</v>
       </c>
       <c r="N72" s="3">
+        <v>300</v>
+      </c>
+      <c r="O72" s="3">
+        <v>300</v>
+      </c>
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>400</v>
       </c>
-      <c r="T72" s="3">
-        <v>200</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
+        <v>200</v>
+      </c>
+      <c r="W72" s="3">
         <v>300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F76" s="3">
         <v>11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>8400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>8300</v>
       </c>
       <c r="N76" s="3">
         <v>8400</v>
       </c>
       <c r="O76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P76" s="3">
         <v>8400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R76" s="3">
         <v>8500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>8100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,126 +5620,138 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -5369,28 +5759,34 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,25 +5812,27 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5467,16 +5865,16 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,41 +6270,47 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>200</v>
-      </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
@@ -5884,37 +6318,43 @@
         <v>200</v>
       </c>
       <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
       </c>
       <c r="S89" s="3">
         <v>300</v>
       </c>
       <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>200</v>
-      </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,26 +6380,28 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5970,49 +6412,55 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
-      </c>
       <c r="T91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
       <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>2500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,20 +7175,26 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6710,42 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1600</v>
       </c>
       <c r="G8" s="3">
         <v>1600</v>
       </c>
       <c r="H8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
       <c r="S8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>700</v>
       </c>
       <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
-      </c>
-      <c r="X8" s="3">
-        <v>700</v>
       </c>
       <c r="Y8" s="3">
         <v>700</v>
       </c>
       <c r="Z8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AA8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,7 +868,7 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -870,7 +877,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -900,7 +907,7 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
@@ -909,16 +916,16 @@
         <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>200</v>
@@ -926,52 +933,55 @@
       <c r="AA9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
       </c>
       <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
@@ -983,28 +993,31 @@
         <v>400</v>
       </c>
       <c r="U10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>500</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,10 +1295,10 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1284,7 +1307,7 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1320,13 +1343,13 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X15" s="3">
         <v>300</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,34 +1402,34 @@
         <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
@@ -1411,10 +1438,10 @@
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
@@ -1423,105 +1450,111 @@
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>700</v>
       </c>
       <c r="Z17" s="3">
         <v>700</v>
       </c>
       <c r="AA17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>800</v>
       </c>
       <c r="G18" s="3">
         <v>800</v>
       </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I18" s="3">
         <v>400</v>
       </c>
       <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,17 +1582,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1626,50 +1660,53 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1000</v>
       </c>
       <c r="G21" s="3">
         <v>1000</v>
       </c>
       <c r="H21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
       <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
       <c r="Q21" s="3">
         <v>200</v>
       </c>
@@ -1683,28 +1720,31 @@
         <v>200</v>
       </c>
       <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
-        <v>200</v>
-      </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>100</v>
       </c>
       <c r="AA21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,52 +1820,55 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1837,28 +1880,31 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,52 +2060,55 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2068,72 +2120,75 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2145,28 +2200,31 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2550,52 +2620,55 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2607,28 +2680,31 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,52 +2780,55 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2761,110 +2840,116 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,22 +3007,23 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2945,43 +3032,43 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
@@ -2996,10 +3083,13 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,49 +3165,52 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
@@ -3126,34 +3219,37 @@
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>400</v>
       </c>
       <c r="Y43" s="3">
         <v>400</v>
       </c>
       <c r="Z43" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,11 +3337,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -3259,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3274,11 +3373,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,76 +3417,79 @@
         <v>2100</v>
       </c>
       <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
       </c>
       <c r="O46" s="3">
         <v>500</v>
       </c>
       <c r="P46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>600</v>
       </c>
       <c r="R46" s="3">
+        <v>600</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
-      </c>
-      <c r="X46" s="3">
-        <v>500</v>
       </c>
       <c r="Y46" s="3">
         <v>500</v>
       </c>
       <c r="Z46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,7 +3503,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -3419,7 +3524,7 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -3427,8 +3532,8 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,31 +3565,34 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
         <v>12200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>10000</v>
       </c>
       <c r="H48" s="3">
         <v>10000</v>
       </c>
       <c r="I48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J48" s="3">
         <v>9800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>9600</v>
       </c>
       <c r="K48" s="3">
         <v>9600</v>
@@ -3493,52 +3601,55 @@
         <v>9600</v>
       </c>
       <c r="M48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N48" s="3">
         <v>9500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,17 +3885,20 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -3789,11 +3909,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -3810,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3825,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E54" s="3">
         <v>14700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>10200</v>
       </c>
       <c r="K54" s="3">
         <v>10200</v>
       </c>
       <c r="L54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="M54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9400</v>
       </c>
       <c r="R54" s="3">
         <v>9400</v>
       </c>
       <c r="S54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="T54" s="3">
         <v>9900</v>
       </c>
       <c r="U54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="V54" s="3">
         <v>10400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4099,13 +4230,13 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4114,28 +4245,31 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
-        <v>200</v>
-      </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>200</v>
-      </c>
       <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4232,13 +4369,13 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4255,8 +4392,8 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
+      <c r="Q59" s="3">
+        <v>100</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4288,19 +4425,22 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -4309,13 +4449,13 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4336,7 +4476,7 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4345,28 +4485,31 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
       <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
-        <v>200</v>
-      </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,67 +4526,70 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>500</v>
       </c>
       <c r="U61" s="3">
+        <v>500</v>
+      </c>
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>2500</v>
       </c>
       <c r="X61" s="3">
         <v>2500</v>
       </c>
       <c r="Y61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4463,10 +4609,10 @@
         <v>800</v>
       </c>
       <c r="I62" s="3">
+        <v>800</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
@@ -4481,7 +4627,7 @@
         <v>800</v>
       </c>
       <c r="O62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>900</v>
@@ -4508,7 +4654,7 @@
         <v>900</v>
       </c>
       <c r="X62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y62" s="3">
         <v>1000</v>
@@ -4517,10 +4663,13 @@
         <v>1000</v>
       </c>
       <c r="AA62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>1100</v>
       </c>
       <c r="F66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2000</v>
       </c>
       <c r="J66" s="3">
         <v>2000</v>
       </c>
       <c r="K66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,40 +5335,43 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
       <c r="M72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N72" s="3">
         <v>300</v>
@@ -5206,43 +5380,46 @@
         <v>300</v>
       </c>
       <c r="P72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q72" s="3">
         <v>400</v>
       </c>
       <c r="R72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S72" s="3">
         <v>500</v>
       </c>
       <c r="T72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U72" s="3">
         <v>400</v>
       </c>
       <c r="V72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W72" s="3">
+        <v>200</v>
+      </c>
+      <c r="X72" s="3">
         <v>300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>500</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>800</v>
       </c>
       <c r="Z72" s="3">
         <v>800</v>
       </c>
       <c r="AA72" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>8100</v>
       </c>
       <c r="L76" s="3">
         <v>8100</v>
       </c>
       <c r="M76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="N76" s="3">
         <v>8400</v>
       </c>
       <c r="O76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P76" s="3">
         <v>8300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>8400</v>
       </c>
       <c r="Q76" s="3">
         <v>8400</v>
       </c>
       <c r="R76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="S76" s="3">
         <v>8500</v>
       </c>
       <c r="T76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="U76" s="3">
         <v>8400</v>
       </c>
       <c r="V76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W76" s="3">
         <v>8100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>8700</v>
       </c>
       <c r="Z76" s="3">
         <v>8700</v>
       </c>
       <c r="AA76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,134 +5815,140 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5765,28 +5960,31 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,10 +6022,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -5835,7 +6034,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5871,13 +6070,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,44 +6490,47 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
@@ -6324,37 +6541,40 @@
         <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
         <v>300</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
-        <v>200</v>
-      </c>
       <c r="Y89" s="3">
         <v>200</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,20 +6612,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6418,28 +6639,28 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
@@ -6448,19 +6669,22 @@
         <v>-300</v>
       </c>
       <c r="X91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-500</v>
       </c>
       <c r="AA91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>2500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7282,79 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,23 +7430,26 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7220,35 +7472,35 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,210 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
       </c>
       <c r="H8" s="3">
         <v>1600</v>
       </c>
       <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>700</v>
       </c>
       <c r="V8" s="3">
+        <v>700</v>
+      </c>
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>700</v>
       </c>
       <c r="Z8" s="3">
         <v>700</v>
       </c>
       <c r="AA8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AB8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -871,7 +877,7 @@
         <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -880,7 +886,7 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -910,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
@@ -919,16 +925,16 @@
         <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA9" s="3">
         <v>200</v>
@@ -936,55 +942,58 @@
       <c r="AB9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1300</v>
       </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
@@ -996,28 +1005,31 @@
         <v>400</v>
       </c>
       <c r="V10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>500</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>400</v>
       </c>
       <c r="AB10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,26 +1236,26 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1253,8 +1272,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1268,8 +1287,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1280,28 +1299,31 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
@@ -1310,7 +1332,7 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1346,13 +1368,13 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y15" s="3">
         <v>300</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,46 +1418,47 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
@@ -1441,10 +1467,10 @@
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
@@ -1453,108 +1479,114 @@
         <v>700</v>
       </c>
       <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>700</v>
       </c>
       <c r="AA17" s="3">
         <v>700</v>
       </c>
       <c r="AB17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>800</v>
       </c>
       <c r="H18" s="3">
         <v>800</v>
       </c>
       <c r="I18" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" s="3">
+        <v>400</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,20 +1615,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1663,53 +1696,56 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1800</v>
       </c>
       <c r="E21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
       <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>200</v>
-      </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
@@ -1723,28 +1759,31 @@
         <v>200</v>
       </c>
       <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
-        <v>200</v>
-      </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>300</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>100</v>
       </c>
       <c r="AB21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,55 +1862,58 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>1300</v>
       </c>
       <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
       </c>
       <c r="K23" s="3">
+        <v>400</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1883,33 +1925,36 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1917,8 +1962,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,55 +2111,58 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
       </c>
       <c r="K26" s="3">
+        <v>400</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -2123,75 +2174,78 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
       </c>
       <c r="K27" s="3">
+        <v>400</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -2203,28 +2257,31 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,20 +2609,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2623,55 +2692,58 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>400</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
       </c>
       <c r="K33" s="3">
+        <v>400</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2683,28 +2755,31 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,55 +2858,58 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>400</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
       </c>
       <c r="K35" s="3">
+        <v>400</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2843,113 +2921,119 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,16 +3103,16 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3035,43 +3121,43 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -3086,10 +3172,13 @@
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,52 +3257,55 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
@@ -3222,34 +3314,37 @@
         <v>400</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>400</v>
       </c>
       <c r="Z43" s="3">
         <v>400</v>
       </c>
       <c r="AA43" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,14 +3435,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -3361,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3376,11 +3474,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3408,93 +3506,99 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="E46" s="3">
         <v>2100</v>
       </c>
       <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
+        <v>600</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>500</v>
       </c>
       <c r="Z46" s="3">
         <v>500</v>
       </c>
       <c r="AA46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AB46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -3506,7 +3610,7 @@
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -3527,7 +3631,7 @@
         <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -3535,8 +3639,8 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>100</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3550,8 +3654,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3568,34 +3672,37 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10000</v>
       </c>
       <c r="I48" s="3">
         <v>10000</v>
       </c>
       <c r="J48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K48" s="3">
         <v>9800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>9600</v>
       </c>
       <c r="L48" s="3">
         <v>9600</v>
@@ -3604,52 +3711,55 @@
         <v>9600</v>
       </c>
       <c r="N48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3897,11 +4016,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3912,11 +4031,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -3933,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3948,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>10200</v>
       </c>
       <c r="L54" s="3">
         <v>10200</v>
       </c>
       <c r="M54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N54" s="3">
         <v>10000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>9400</v>
       </c>
       <c r="S54" s="3">
         <v>9400</v>
       </c>
       <c r="T54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="U54" s="3">
         <v>9900</v>
       </c>
       <c r="V54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="W54" s="3">
         <v>10400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,22 +4327,22 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4233,13 +4363,13 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4248,28 +4378,31 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
-        <v>200</v>
-      </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>200</v>
-      </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4481,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4372,13 +4508,13 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -4395,8 +4531,8 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
+      <c r="R59" s="3">
+        <v>100</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4410,8 +4546,8 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,13 +4576,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -4452,13 +4591,13 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -4479,7 +4618,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4488,28 +4627,31 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
-        <v>200</v>
-      </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="AA60" s="3">
-        <v>200</v>
-      </c>
       <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,67 +4671,70 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>500</v>
       </c>
       <c r="V61" s="3">
+        <v>500</v>
+      </c>
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>2500</v>
       </c>
       <c r="Y61" s="3">
         <v>2500</v>
       </c>
       <c r="Z61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4612,10 +4757,10 @@
         <v>800</v>
       </c>
       <c r="J62" s="3">
+        <v>800</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
@@ -4630,7 +4775,7 @@
         <v>800</v>
       </c>
       <c r="P62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q62" s="3">
         <v>900</v>
@@ -4657,7 +4802,7 @@
         <v>900</v>
       </c>
       <c r="Y62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z62" s="3">
         <v>1000</v>
@@ -4666,10 +4811,13 @@
         <v>1000</v>
       </c>
       <c r="AB62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5074,82 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
       </c>
       <c r="L66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
       <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,43 +5508,46 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E72" s="3">
         <v>5800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O72" s="3">
         <v>300</v>
@@ -5383,43 +5556,46 @@
         <v>300</v>
       </c>
       <c r="Q72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R72" s="3">
         <v>400</v>
       </c>
       <c r="S72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T72" s="3">
         <v>500</v>
       </c>
       <c r="U72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V72" s="3">
         <v>400</v>
       </c>
       <c r="W72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X72" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>500</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>800</v>
       </c>
       <c r="AA72" s="3">
         <v>800</v>
       </c>
       <c r="AB72" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>8100</v>
       </c>
       <c r="M76" s="3">
         <v>8100</v>
       </c>
       <c r="N76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="O76" s="3">
         <v>8400</v>
       </c>
       <c r="P76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8400</v>
       </c>
       <c r="R76" s="3">
         <v>8400</v>
       </c>
       <c r="S76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="T76" s="3">
         <v>8500</v>
       </c>
       <c r="U76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="V76" s="3">
         <v>8400</v>
       </c>
       <c r="W76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="X76" s="3">
         <v>8100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>8700</v>
       </c>
       <c r="AA76" s="3">
         <v>8700</v>
       </c>
       <c r="AB76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AC76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,140 +6006,146 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>400</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
       </c>
       <c r="K81" s="3">
+        <v>400</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -5963,28 +6157,31 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,22 +6210,23 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -6037,7 +6235,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -6073,13 +6271,13 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,47 +6706,50 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
@@ -6544,37 +6760,40 @@
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>300</v>
       </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>200</v>
-      </c>
       <c r="Z89" s="3">
         <v>200</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6615,20 +6835,20 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6642,28 +6862,28 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-300</v>
@@ -6672,19 +6892,22 @@
         <v>-300</v>
       </c>
       <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-500</v>
       </c>
       <c r="AB91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
       </c>
       <c r="M94" s="3">
         <v>-300</v>
       </c>
       <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>2500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>200</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,26 +7681,29 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7475,35 +7726,35 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -6829,13 +6829,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,234 +665,248 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
       </c>
       <c r="R8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>700</v>
+      </c>
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
         <v>700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>700</v>
-      </c>
-      <c r="W8" s="3">
-        <v>800</v>
       </c>
       <c r="X8" s="3">
         <v>700</v>
       </c>
       <c r="Y8" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Z8" s="3">
         <v>700</v>
       </c>
       <c r="AA8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD8" s="3">
         <v>600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -919,87 +933,93 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
-        <v>200</v>
-      </c>
       <c r="AB9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
       </c>
       <c r="R10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
       <c r="T10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
@@ -1008,28 +1028,34 @@
         <v>400</v>
       </c>
       <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>500</v>
       </c>
       <c r="AB10" s="3">
         <v>400</v>
       </c>
       <c r="AC10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,29 +1279,29 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1275,11 +1315,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1290,11 +1330,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1302,14 +1342,20 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,28 +1363,28 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1371,16 +1417,16 @@
         <v>200</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X15" s="3">
         <v>200</v>
       </c>
       <c r="Y15" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA15" s="3">
         <v>300</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>700</v>
       </c>
       <c r="S17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="X17" s="3">
         <v>700</v>
       </c>
       <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="3">
         <v>1300</v>
       </c>
       <c r="G18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,25 +1682,27 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1699,58 +1767,64 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>200</v>
-      </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
@@ -1762,28 +1836,34 @@
         <v>200</v>
       </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,62 +1945,68 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="3">
         <v>1300</v>
       </c>
       <c r="G23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1928,28 +2014,34 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,17 +2052,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,62 +2212,68 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -2177,82 +2281,88 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2260,28 +2370,34 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,26 +2746,32 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2695,62 +2835,68 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2758,28 +2904,34 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,62 +3013,68 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2924,116 +3082,128 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,77 +3266,79 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
@@ -3175,10 +3349,16 @@
         <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,49 +3440,55 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3311,40 +3497,46 @@
         <v>400</v>
       </c>
       <c r="S43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>400</v>
       </c>
       <c r="U43" s="3">
+        <v>400</v>
+      </c>
+      <c r="V43" s="3">
+        <v>400</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
-      </c>
-      <c r="V43" s="3">
-        <v>600</v>
-      </c>
-      <c r="W43" s="3">
-        <v>800</v>
       </c>
       <c r="X43" s="3">
         <v>600</v>
       </c>
       <c r="Y43" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>300</v>
       </c>
       <c r="AC43" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,28 +3618,34 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3462,28 +3660,28 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3509,102 +3707,114 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>700</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -3613,10 +3823,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -3634,19 +3844,19 @@
         <v>200</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3657,11 +3867,11 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3675,91 +3885,103 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>9600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>9600</v>
       </c>
       <c r="N48" s="3">
         <v>9600</v>
       </c>
       <c r="O48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>9500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>9200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>9000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>9000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>8800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>8900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>9400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>11500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>11600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>12200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>12500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4019,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -4034,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -4055,31 +4295,31 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F54" s="3">
         <v>17000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>12700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>12900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4330,16 +4592,16 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4348,7 +4610,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4366,43 +4628,49 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>200</v>
-      </c>
       <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4511,16 +4785,16 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -4534,11 +4808,11 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -4549,11 +4823,11 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4567,43 +4841,49 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -4621,37 +4901,43 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>200</v>
-      </c>
       <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4674,67 +4960,73 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>1200</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
-        <v>200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>3100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,7 +5034,7 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
@@ -4760,13 +5052,13 @@
         <v>800</v>
       </c>
       <c r="K62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
       </c>
       <c r="M62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
@@ -4778,10 +5070,10 @@
         <v>800</v>
       </c>
       <c r="Q62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S62" s="3">
         <v>900</v>
@@ -4805,19 +5097,25 @@
         <v>900</v>
       </c>
       <c r="Z62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB62" s="3">
         <v>1000</v>
       </c>
       <c r="AC62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F72" s="3">
         <v>7100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
-        <v>100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="3">
         <v>300</v>
       </c>
       <c r="R72" s="3">
+        <v>300</v>
+      </c>
+      <c r="S72" s="3">
+        <v>300</v>
+      </c>
+      <c r="T72" s="3">
         <v>400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>400</v>
       </c>
-      <c r="X72" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA72" s="3">
         <v>300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F76" s="3">
         <v>16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>8300</v>
       </c>
       <c r="R76" s="3">
         <v>8400</v>
       </c>
       <c r="S76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="T76" s="3">
         <v>8400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="V76" s="3">
         <v>8500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>8100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>8200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>8400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>8700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>8700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,150 +6387,162 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -6160,28 +6550,34 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6220,28 +6618,28 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -6274,16 +6672,16 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA83" s="3">
         <v>300</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,53 +7137,59 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
@@ -6763,37 +7197,43 @@
         <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>200</v>
       </c>
       <c r="W89" s="3">
         <v>300</v>
       </c>
       <c r="X89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>200</v>
-      </c>
       <c r="AA89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6832,29 +7274,29 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6865,49 +7307,55 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-300</v>
-      </c>
       <c r="X91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
       <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>300</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>2500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,13 +7652,15 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,82 +8019,88 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,32 +8182,38 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7729,42 +8233,48 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MXC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>MXC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,240 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1600</v>
       </c>
       <c r="K8" s="3">
         <v>1600</v>
       </c>
       <c r="L8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
       </c>
       <c r="W8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>700</v>
       </c>
       <c r="Y8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>600</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>700</v>
       </c>
       <c r="AC8" s="3">
         <v>700</v>
       </c>
       <c r="AD8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -900,7 +907,7 @@
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -909,7 +916,7 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -939,7 +946,7 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
@@ -948,16 +955,16 @@
         <v>300</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB9" s="3">
         <v>300</v>
       </c>
       <c r="AC9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD9" s="3">
         <v>200</v>
@@ -965,64 +972,67 @@
       <c r="AE9" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
@@ -1034,28 +1044,31 @@
         <v>400</v>
       </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
       </c>
       <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>500</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>400</v>
       </c>
       <c r="AE10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,26 +1305,26 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1321,8 +1341,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1348,37 +1368,40 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1387,7 +1410,7 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1423,13 +1446,13 @@
         <v>200</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB15" s="3">
         <v>300</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,55 +1499,56 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
         <v>1200</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
@@ -1530,10 +1557,10 @@
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>700</v>
       </c>
       <c r="W17" s="3">
         <v>700</v>
@@ -1542,117 +1569,123 @@
         <v>700</v>
       </c>
       <c r="Y17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>700</v>
       </c>
       <c r="AD17" s="3">
         <v>700</v>
       </c>
       <c r="AE17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>800</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
       </c>
       <c r="L18" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M18" s="3">
         <v>400</v>
       </c>
       <c r="N18" s="3">
+        <v>400</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,17 +1717,18 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1702,11 +1736,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1773,62 +1807,65 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>200</v>
-      </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
-        <v>200</v>
-      </c>
       <c r="U21" s="3">
         <v>200</v>
       </c>
@@ -1842,28 +1879,31 @@
         <v>200</v>
       </c>
       <c r="Y21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
-        <v>200</v>
-      </c>
       <c r="AA21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>300</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>100</v>
       </c>
       <c r="AE21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,64 +1991,67 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -2020,28 +2063,31 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,23 +2095,23 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,64 +2267,67 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1200</v>
       </c>
       <c r="G26" s="3">
         <v>1200</v>
       </c>
       <c r="H26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>400</v>
       </c>
       <c r="N26" s="3">
+        <v>400</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -2287,84 +2339,87 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1200</v>
       </c>
       <c r="G27" s="3">
         <v>1200</v>
       </c>
       <c r="H27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>400</v>
       </c>
       <c r="N27" s="3">
+        <v>400</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2376,28 +2431,31 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,17 +2819,20 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2770,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2841,64 +2911,67 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1200</v>
       </c>
       <c r="G33" s="3">
         <v>1200</v>
       </c>
       <c r="H33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>400</v>
       </c>
       <c r="N33" s="3">
+        <v>400</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2910,28 +2983,31 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,64 +3095,67 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1200</v>
       </c>
       <c r="G35" s="3">
         <v>1200</v>
       </c>
       <c r="H35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>400</v>
       </c>
       <c r="N35" s="3">
+        <v>400</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -3088,122 +3167,128 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,34 +3354,35 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -3304,43 +3391,43 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
@@ -3355,10 +3442,13 @@
         <v>100</v>
       </c>
       <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,61 +3536,64 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
       </c>
       <c r="L43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
       </c>
       <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>400</v>
       </c>
       <c r="U43" s="3">
         <v>400</v>
@@ -3509,34 +3602,37 @@
         <v>400</v>
       </c>
       <c r="W43" s="3">
+        <v>400</v>
+      </c>
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>300</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>400</v>
       </c>
       <c r="AC43" s="3">
         <v>400</v>
       </c>
       <c r="AD43" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE43" s="3">
         <v>300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3636,20 +3735,20 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3666,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3681,11 +3780,11 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -3713,111 +3812,117 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2100</v>
       </c>
       <c r="H46" s="3">
         <v>2100</v>
       </c>
       <c r="I46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>500</v>
       </c>
       <c r="S46" s="3">
         <v>500</v>
       </c>
       <c r="T46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>500</v>
       </c>
       <c r="AC46" s="3">
         <v>500</v>
       </c>
       <c r="AD46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
         <v>700</v>
       </c>
       <c r="F47" s="3">
+        <v>700</v>
+      </c>
+      <c r="G47" s="3">
         <v>500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -3829,7 +3934,7 @@
         <v>300</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -3850,7 +3955,7 @@
         <v>200</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -3858,8 +3963,8 @@
       <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>100</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3873,8 +3978,8 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3891,43 +3996,46 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>10000</v>
       </c>
       <c r="L48" s="3">
         <v>10000</v>
       </c>
       <c r="M48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N48" s="3">
         <v>9800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>9600</v>
       </c>
       <c r="O48" s="3">
         <v>9600</v>
@@ -3936,52 +4044,55 @@
         <v>9600</v>
       </c>
       <c r="Q48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R48" s="3">
         <v>9500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4265,11 +4385,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -4280,11 +4400,11 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -4301,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4316,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4434,88 +4560,91 @@
         <v>18200</v>
       </c>
       <c r="E54" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F54" s="3">
         <v>17800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>10200</v>
       </c>
       <c r="O54" s="3">
         <v>10200</v>
       </c>
       <c r="P54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>10000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>9400</v>
       </c>
       <c r="V54" s="3">
         <v>9400</v>
       </c>
       <c r="W54" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="X54" s="3">
         <v>9900</v>
       </c>
       <c r="Y54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="Z54" s="3">
         <v>10400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4598,22 +4729,22 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4634,13 +4765,13 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4649,28 +4780,31 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
-        <v>200</v>
-      </c>
       <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3">
-        <v>200</v>
-      </c>
       <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,13 +4892,16 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4791,13 +4928,13 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -4814,8 +4951,8 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
+      <c r="U59" s="3">
+        <v>100</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -4829,8 +4966,8 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4847,31 +4984,34 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4880,13 +5020,13 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -4907,7 +5047,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -4916,28 +5056,31 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
-        <v>200</v>
-      </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>100</v>
       </c>
-      <c r="AD60" s="3">
-        <v>200</v>
-      </c>
       <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4966,67 +5109,70 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>500</v>
       </c>
       <c r="S61" s="3">
         <v>500</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>500</v>
       </c>
       <c r="Y61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>2500</v>
       </c>
       <c r="AB61" s="3">
         <v>2500</v>
       </c>
       <c r="AC61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AD61" s="3">
         <v>2900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5034,10 +5180,10 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
@@ -5058,10 +5204,10 @@
         <v>800</v>
       </c>
       <c r="M62" s="3">
+        <v>800</v>
+      </c>
+      <c r="N62" s="3">
         <v>700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
@@ -5076,7 +5222,7 @@
         <v>800</v>
       </c>
       <c r="S62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>900</v>
@@ -5103,7 +5249,7 @@
         <v>900</v>
       </c>
       <c r="AB62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AC62" s="3">
         <v>1000</v>
@@ -5112,10 +5258,13 @@
         <v>1000</v>
       </c>
       <c r="AE62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF62" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,7 +5548,7 @@
         <v>1100</v>
       </c>
       <c r="E66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
@@ -5399,79 +5557,82 @@
         <v>1000</v>
       </c>
       <c r="H66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
       </c>
       <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
       </c>
       <c r="N66" s="3">
         <v>2000</v>
       </c>
       <c r="O66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
       </c>
       <c r="V66" s="3">
         <v>1000</v>
       </c>
       <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,52 +6030,55 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E72" s="3">
         <v>8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R72" s="3">
         <v>300</v>
@@ -5913,43 +6087,46 @@
         <v>300</v>
       </c>
       <c r="T72" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U72" s="3">
         <v>400</v>
       </c>
       <c r="V72" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W72" s="3">
         <v>500</v>
       </c>
       <c r="X72" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y72" s="3">
         <v>400</v>
       </c>
       <c r="Z72" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA72" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB72" s="3">
         <v>300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>500</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>800</v>
       </c>
       <c r="AD72" s="3">
         <v>800</v>
       </c>
       <c r="AE72" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,88 +6410,91 @@
         <v>17100</v>
       </c>
       <c r="E76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F76" s="3">
         <v>16800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>8100</v>
       </c>
       <c r="P76" s="3">
         <v>8100</v>
       </c>
       <c r="Q76" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="R76" s="3">
         <v>8400</v>
       </c>
       <c r="S76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T76" s="3">
         <v>8300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>8400</v>
       </c>
       <c r="U76" s="3">
         <v>8400</v>
       </c>
       <c r="V76" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="W76" s="3">
         <v>8500</v>
       </c>
       <c r="X76" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="Y76" s="3">
         <v>8400</v>
       </c>
       <c r="Z76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>8100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>8200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>8400</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>8700</v>
       </c>
       <c r="AD76" s="3">
         <v>8700</v>
       </c>
       <c r="AE76" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AF76" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,158 +6582,164 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1200</v>
       </c>
       <c r="G81" s="3">
         <v>1200</v>
       </c>
       <c r="H81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>400</v>
       </c>
       <c r="N81" s="3">
+        <v>400</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -6556,28 +6751,31 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,31 +6807,32 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -6642,7 +6841,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -6678,13 +6877,13 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB83" s="3">
         <v>300</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,56 +7357,59 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
       <c r="S89" s="3">
         <v>200</v>
       </c>
@@ -7203,37 +7420,40 @@
         <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
         <v>300</v>
       </c>
       <c r="X89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>200</v>
-      </c>
       <c r="AC89" s="3">
         <v>200</v>
       </c>
       <c r="AD89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE89" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,13 +7485,14 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -7280,26 +7501,26 @@
         <v>-500</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -7313,28 +7534,28 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>-300</v>
@@ -7343,19 +7564,22 @@
         <v>-300</v>
       </c>
       <c r="AB91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-600</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>-500</v>
       </c>
       <c r="AE91" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-300</v>
       </c>
       <c r="P94" s="3">
         <v>-300</v>
       </c>
       <c r="Q94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>300</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>2500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,17 +7887,18 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>200</v>
-      </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,35 +8437,38 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -8239,35 +8491,35 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-100</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
